--- a/database_old/Trace_Report_SBHP_initial.xlsx
+++ b/database_old/Trace_Report_SBHP_initial.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rail car\final_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6A68B5B-A37A-400E-88F7-BF52352FC809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55766F4C-8486-4C38-B1E3-EA176E3CE7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="3045" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="4485" yWindow="2970" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Test_format_trace" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_format_trace!$A$2:$N$4</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Initial</t>
   </si>
@@ -68,34 +65,52 @@
     <t>Destination City</t>
   </si>
   <si>
+    <t>CGAX</t>
+  </si>
+  <si>
+    <t>GREELEY</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Junction Delivery</t>
+  </si>
+  <si>
+    <t>GWR</t>
+  </si>
+  <si>
+    <t>JOHNSTOWN</t>
+  </si>
+  <si>
     <t>BNGX</t>
   </si>
   <si>
-    <t>LA JUNTA</t>
-  </si>
-  <si>
-    <t>CO</t>
+    <t>KANSAS CITY</t>
+  </si>
+  <si>
+    <t>KS</t>
   </si>
   <si>
     <t>Arrive In-Transit</t>
   </si>
   <si>
-    <t>HKCKDE</t>
+    <t>HLINKC</t>
   </si>
   <si>
     <t>LOVELAND</t>
   </si>
   <si>
-    <t>UP</t>
-  </si>
-  <si>
-    <t>LA SALLE</t>
-  </si>
-  <si>
-    <t>LDI601</t>
-  </si>
-  <si>
-    <t>JOHNSTOWN</t>
+    <t>CGEX</t>
+  </si>
+  <si>
+    <t>SHORTLINE YARD</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>LTJ40N</t>
   </si>
   <si>
     <t>Gross Weight</t>
@@ -107,16 +122,19 @@
     <t>Net Weight</t>
   </si>
   <si>
-    <t>Description unknown, completed 05/12/2023 05:58:12 EDT, by WPJTOWN1.The search returned: 2 events.</t>
+    <t>Description unknown, completed 06/15/2023 05:55:31 EDT, by WPJTOWN1.The search returned: 3 events.</t>
   </si>
   <si>
     <t>Car_no</t>
   </si>
   <si>
-    <t>BNGX30307</t>
-  </si>
-  <si>
-    <t>UP74772</t>
+    <t>CGAX10167</t>
+  </si>
+  <si>
+    <t>BNGX30727</t>
+  </si>
+  <si>
+    <t>CGEX1941</t>
   </si>
 </sst>
 </file>
@@ -957,17 +975,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O4"/>
+      <selection activeCell="O3" sqref="O3:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1005,16 +1023,16 @@
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1022,7 +1040,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>30307</v>
+        <v>10167</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1031,13 +1049,13 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>1442</v>
+        <v>1217</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -1052,16 +1070,16 @@
         <v>12</v>
       </c>
       <c r="L3">
-        <v>280000</v>
+        <v>273000</v>
       </c>
       <c r="M3">
-        <v>63900</v>
+        <v>64200</v>
       </c>
       <c r="N3">
-        <v>216100</v>
+        <v>208800</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1069,50 +1087,96 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>74772</v>
+        <v>30727</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>1458</v>
+        <v>853</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
       </c>
       <c r="L4">
-        <v>185800</v>
+        <v>282200</v>
       </c>
       <c r="M4">
+        <v>64400</v>
+      </c>
+      <c r="N4">
+        <v>217800</v>
+      </c>
+      <c r="O4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>1941</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>1913</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5">
+        <v>198750</v>
+      </c>
+      <c r="M5">
         <v>0</v>
       </c>
-      <c r="N4">
-        <v>185800</v>
-      </c>
-      <c r="O4" t="s">
-        <v>26</v>
+      <c r="N5">
+        <v>198750</v>
+      </c>
+      <c r="O5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:N4"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>